--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hp-Cd163.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hp-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -94,7 +97,7 @@
     <t>Cd163</t>
   </si>
   <si>
-    <t>MuSCs</t>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,40 +549,40 @@
         <v>11.673104</v>
       </c>
       <c r="I2">
-        <v>0.1847044466412153</v>
+        <v>0.03097176293340264</v>
       </c>
       <c r="J2">
-        <v>0.1847044466412152</v>
+        <v>0.03099614597041398</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.945352666666667</v>
+        <v>0.6065375000000001</v>
       </c>
       <c r="N2">
-        <v>14.836058</v>
+        <v>1.213075</v>
       </c>
       <c r="O2">
-        <v>0.455333475299675</v>
+        <v>0.03501222831579698</v>
       </c>
       <c r="P2">
-        <v>0.4643150580045728</v>
+        <v>0.02395907277050269</v>
       </c>
       <c r="Q2">
-        <v>19.24253866489245</v>
+        <v>2.360058439133334</v>
       </c>
       <c r="R2">
-        <v>173.182847984032</v>
+        <v>14.1603506348</v>
       </c>
       <c r="S2">
-        <v>0.08410211759244793</v>
+        <v>0.001084390435167031</v>
       </c>
       <c r="T2">
-        <v>0.08576105585591838</v>
+        <v>0.0007426389169102723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -608,40 +611,40 @@
         <v>11.673104</v>
       </c>
       <c r="I3">
-        <v>0.1847044466412153</v>
+        <v>0.03097176293340264</v>
       </c>
       <c r="J3">
-        <v>0.1847044466412152</v>
+        <v>0.03099614597041398</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6302735</v>
+        <v>5.210433333333333</v>
       </c>
       <c r="N3">
-        <v>1.260547</v>
+        <v>15.6313</v>
       </c>
       <c r="O3">
-        <v>0.05803117441525701</v>
+        <v>0.3007709852909436</v>
       </c>
       <c r="P3">
-        <v>0.03945057059108897</v>
+        <v>0.3087290185665014</v>
       </c>
       <c r="Q3">
-        <v>2.452416037981334</v>
+        <v>20.27397672835556</v>
       </c>
       <c r="R3">
-        <v>14.714496227888</v>
+        <v>182.4657905552</v>
       </c>
       <c r="S3">
-        <v>0.01071861595830989</v>
+        <v>0.009315407653677037</v>
       </c>
       <c r="T3">
-        <v>0.007286695810707289</v>
+        <v>0.009569409724789925</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -670,40 +673,40 @@
         <v>11.673104</v>
       </c>
       <c r="I4">
-        <v>0.1847044466412153</v>
+        <v>0.03097176293340264</v>
       </c>
       <c r="J4">
-        <v>0.1847044466412152</v>
+        <v>0.03099614597041398</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.013841</v>
+        <v>0.7331004999999999</v>
       </c>
       <c r="N4">
-        <v>0.041523</v>
+        <v>1.466201</v>
       </c>
       <c r="O4">
-        <v>0.001274382446797418</v>
+        <v>0.04231804642651924</v>
       </c>
       <c r="P4">
-        <v>0.001299520004136131</v>
+        <v>0.02895848686617382</v>
       </c>
       <c r="Q4">
-        <v>0.05385581082133334</v>
+        <v>2.852519459650666</v>
       </c>
       <c r="R4">
-        <v>0.484702297392</v>
+        <v>17.115116757904</v>
       </c>
       <c r="S4">
-        <v>0.000235384104644995</v>
+        <v>0.001310664501726881</v>
       </c>
       <c r="T4">
-        <v>0.0002400271232631538</v>
+        <v>0.0008976014859862399</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -732,10 +735,10 @@
         <v>11.673104</v>
       </c>
       <c r="I5">
-        <v>0.1847044466412153</v>
+        <v>0.03097176293340264</v>
       </c>
       <c r="J5">
-        <v>0.1847044466412152</v>
+        <v>0.03099614597041398</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,60 +747,60 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.271479666666667</v>
+        <v>3.883082333333333</v>
       </c>
       <c r="N5">
-        <v>15.814439</v>
+        <v>11.649247</v>
       </c>
       <c r="O5">
-        <v>0.4853609678382705</v>
+        <v>0.2241499746078426</v>
       </c>
       <c r="P5">
-        <v>0.494934851400202</v>
+        <v>0.2300807094322775</v>
       </c>
       <c r="Q5">
-        <v>20.51151012762844</v>
+        <v>15.10920797252089</v>
       </c>
       <c r="R5">
-        <v>184.603591148656</v>
+        <v>135.982871752688</v>
       </c>
       <c r="S5">
-        <v>0.08964832898581244</v>
+        <v>0.006942319875082321</v>
       </c>
       <c r="T5">
-        <v>0.09141666785132642</v>
+        <v>0.007131615254539279</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>9.975766999999999</v>
+        <v>3.891034666666667</v>
       </c>
       <c r="H6">
-        <v>29.927301</v>
+        <v>11.673104</v>
       </c>
       <c r="I6">
-        <v>0.4735420476567405</v>
+        <v>0.03097176293340264</v>
       </c>
       <c r="J6">
-        <v>0.4735420476567405</v>
+        <v>0.03099614597041398</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.945352666666667</v>
+        <v>6.890436666666667</v>
       </c>
       <c r="N6">
-        <v>14.836058</v>
+        <v>20.67131</v>
       </c>
       <c r="O6">
-        <v>0.455333475299675</v>
+        <v>0.3977487653588976</v>
       </c>
       <c r="P6">
-        <v>0.4643150580045728</v>
+        <v>0.4082727123645446</v>
       </c>
       <c r="Q6">
-        <v>49.33368593549534</v>
+        <v>26.81092793847111</v>
       </c>
       <c r="R6">
-        <v>444.0031734194581</v>
+        <v>241.29835144624</v>
       </c>
       <c r="S6">
-        <v>0.215619546260068</v>
+        <v>0.01231898046774937</v>
       </c>
       <c r="T6">
-        <v>0.2198727033253436</v>
+        <v>0.01265488058818827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +838,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>9.975766999999999</v>
+        <v>46.51592366666667</v>
       </c>
       <c r="H7">
-        <v>29.927301</v>
+        <v>139.547771</v>
       </c>
       <c r="I7">
-        <v>0.4735420476567405</v>
+        <v>0.3702563158262584</v>
       </c>
       <c r="J7">
-        <v>0.4735420476567405</v>
+        <v>0.3705478062871626</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6302735</v>
+        <v>0.6065375000000001</v>
       </c>
       <c r="N7">
-        <v>1.260547</v>
+        <v>1.213075</v>
       </c>
       <c r="O7">
-        <v>0.05803117441525701</v>
+        <v>0.03501222831579698</v>
       </c>
       <c r="P7">
-        <v>0.03945057059108897</v>
+        <v>0.02395907277050269</v>
       </c>
       <c r="Q7">
-        <v>6.2874615822745</v>
+        <v>28.21365205097084</v>
       </c>
       <c r="R7">
-        <v>37.724769493647</v>
+        <v>169.281912305825</v>
       </c>
       <c r="S7">
-        <v>0.02748020116052625</v>
+        <v>0.01296349866507479</v>
       </c>
       <c r="T7">
-        <v>0.01868150397893106</v>
+        <v>0.008877981855784263</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>9.975766999999999</v>
+        <v>46.51592366666667</v>
       </c>
       <c r="H8">
-        <v>29.927301</v>
+        <v>139.547771</v>
       </c>
       <c r="I8">
-        <v>0.4735420476567405</v>
+        <v>0.3702563158262584</v>
       </c>
       <c r="J8">
-        <v>0.4735420476567405</v>
+        <v>0.3705478062871626</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.013841</v>
+        <v>5.210433333333333</v>
       </c>
       <c r="N8">
-        <v>0.041523</v>
+        <v>15.6313</v>
       </c>
       <c r="O8">
-        <v>0.001274382446797418</v>
+        <v>0.3007709852909436</v>
       </c>
       <c r="P8">
-        <v>0.001299520004136131</v>
+        <v>0.3087290185665014</v>
       </c>
       <c r="Q8">
-        <v>0.138074591047</v>
+        <v>242.3681192035889</v>
       </c>
       <c r="R8">
-        <v>1.242671319423</v>
+        <v>2181.3130728323</v>
       </c>
       <c r="S8">
-        <v>0.0006034736733542563</v>
+        <v>0.1113623569212586</v>
       </c>
       <c r="T8">
-        <v>0.0006153773637295192</v>
+        <v>0.1143988605670058</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,93 +962,93 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>46.51592366666667</v>
+      </c>
+      <c r="H9">
+        <v>139.547771</v>
+      </c>
+      <c r="I9">
+        <v>0.3702563158262584</v>
+      </c>
+      <c r="J9">
+        <v>0.3705478062871626</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>9.975766999999999</v>
-      </c>
-      <c r="H9">
-        <v>29.927301</v>
-      </c>
-      <c r="I9">
-        <v>0.4735420476567405</v>
-      </c>
-      <c r="J9">
-        <v>0.4735420476567405</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.271479666666667</v>
+        <v>0.7331004999999999</v>
       </c>
       <c r="N9">
-        <v>15.814439</v>
+        <v>1.466201</v>
       </c>
       <c r="O9">
-        <v>0.4853609678382705</v>
+        <v>0.04231804642651924</v>
       </c>
       <c r="P9">
-        <v>0.494934851400202</v>
+        <v>0.02895848686617382</v>
       </c>
       <c r="Q9">
-        <v>52.58705289990434</v>
+        <v>34.10084689799517</v>
       </c>
       <c r="R9">
-        <v>473.283476099139</v>
+        <v>204.605081387971</v>
       </c>
       <c r="S9">
-        <v>0.229838826562792</v>
+        <v>0.01566852396284757</v>
       </c>
       <c r="T9">
-        <v>0.2343724629887362</v>
+        <v>0.01073050378165632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.01522366666666666</v>
+        <v>46.51592366666667</v>
       </c>
       <c r="H10">
-        <v>0.045671</v>
+        <v>139.547771</v>
       </c>
       <c r="I10">
-        <v>0.0007226558405160222</v>
+        <v>0.3702563158262584</v>
       </c>
       <c r="J10">
-        <v>0.0007226558405160222</v>
+        <v>0.3705478062871626</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,90 +1057,90 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.945352666666667</v>
+        <v>3.883082333333333</v>
       </c>
       <c r="N10">
-        <v>14.836058</v>
+        <v>11.649247</v>
       </c>
       <c r="O10">
-        <v>0.455333475299675</v>
+        <v>0.2241499746078426</v>
       </c>
       <c r="P10">
-        <v>0.4643150580045728</v>
+        <v>0.2300807094322775</v>
       </c>
       <c r="Q10">
-        <v>0.07528640054644445</v>
+        <v>180.6251614087152</v>
       </c>
       <c r="R10">
-        <v>0.677577604918</v>
+        <v>1625.626452678437</v>
       </c>
       <c r="S10">
-        <v>0.0003290493953077681</v>
+        <v>0.08299294379084915</v>
       </c>
       <c r="T10">
-        <v>0.0003355399885065402</v>
+        <v>0.08525590214912453</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.01522366666666666</v>
+        <v>46.51592366666667</v>
       </c>
       <c r="H11">
-        <v>0.045671</v>
+        <v>139.547771</v>
       </c>
       <c r="I11">
-        <v>0.0007226558405160222</v>
+        <v>0.3702563158262584</v>
       </c>
       <c r="J11">
-        <v>0.0007226558405160222</v>
+        <v>0.3705478062871626</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.6302735</v>
+        <v>6.890436666666667</v>
       </c>
       <c r="N11">
-        <v>1.260547</v>
+        <v>20.67131</v>
       </c>
       <c r="O11">
-        <v>0.05803117441525701</v>
+        <v>0.3977487653588976</v>
       </c>
       <c r="P11">
-        <v>0.03945057059108897</v>
+        <v>0.4082727123645446</v>
       </c>
       <c r="Q11">
-        <v>0.009595073672833333</v>
+        <v>320.5150260166678</v>
       </c>
       <c r="R11">
-        <v>0.057570442037</v>
+        <v>2884.635234150011</v>
       </c>
       <c r="S11">
-        <v>4.193656712318944E-05</v>
+        <v>0.1472689924862284</v>
       </c>
       <c r="T11">
-        <v>2.850918524934007E-05</v>
+        <v>0.1512845579335917</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.01522366666666666</v>
+        <v>0.2964835</v>
       </c>
       <c r="H12">
-        <v>0.045671</v>
+        <v>0.592967</v>
       </c>
       <c r="I12">
-        <v>0.0007226558405160222</v>
+        <v>0.002359942139382673</v>
       </c>
       <c r="J12">
-        <v>0.0007226558405160222</v>
+        <v>0.001574533362132169</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.013841</v>
+        <v>0.6065375000000001</v>
       </c>
       <c r="N12">
-        <v>0.041523</v>
+        <v>1.213075</v>
       </c>
       <c r="O12">
-        <v>0.001274382446797418</v>
+        <v>0.03501222831579698</v>
       </c>
       <c r="P12">
-        <v>0.001299520004136131</v>
+        <v>0.02395907277050269</v>
       </c>
       <c r="Q12">
-        <v>0.0002107107703333333</v>
+        <v>0.17982836088125</v>
       </c>
       <c r="R12">
-        <v>0.001896396933</v>
+        <v>0.7193134435250002</v>
       </c>
       <c r="S12">
-        <v>9.20939918229253E-07</v>
+        <v>8.262683299613654E-05</v>
       </c>
       <c r="T12">
-        <v>9.391057208563803E-07</v>
+        <v>3.77243594029089E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1210,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>0.01522366666666666</v>
+        <v>0.2964835</v>
       </c>
       <c r="H13">
-        <v>0.045671</v>
+        <v>0.592967</v>
       </c>
       <c r="I13">
-        <v>0.0007226558405160222</v>
+        <v>0.002359942139382673</v>
       </c>
       <c r="J13">
-        <v>0.0007226558405160222</v>
+        <v>0.001574533362132169</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,214 +1243,214 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.271479666666667</v>
+        <v>5.210433333333333</v>
       </c>
       <c r="N13">
-        <v>15.814439</v>
+        <v>15.6313</v>
       </c>
       <c r="O13">
-        <v>0.4853609678382705</v>
+        <v>0.3007709852909436</v>
       </c>
       <c r="P13">
-        <v>0.494934851400202</v>
+        <v>0.3087290185665014</v>
       </c>
       <c r="Q13">
-        <v>0.08025124928544444</v>
+        <v>1.544807511183333</v>
       </c>
       <c r="R13">
-        <v>0.7222612435689999</v>
+        <v>9.268845067100001</v>
       </c>
       <c r="S13">
-        <v>0.0003507489381668354</v>
+        <v>0.0007098021224917441</v>
       </c>
       <c r="T13">
-        <v>0.0003576675610392855</v>
+        <v>0.0004861041395912782</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>7.184249666666666</v>
+        <v>0.2964835</v>
       </c>
       <c r="H14">
-        <v>21.552749</v>
+        <v>0.592967</v>
       </c>
       <c r="I14">
-        <v>0.3410308498615283</v>
+        <v>0.002359942139382673</v>
       </c>
       <c r="J14">
-        <v>0.3410308498615283</v>
+        <v>0.001574533362132169</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.945352666666667</v>
+        <v>0.7331004999999999</v>
       </c>
       <c r="N14">
-        <v>14.836058</v>
+        <v>1.466201</v>
       </c>
       <c r="O14">
-        <v>0.455333475299675</v>
+        <v>0.04231804642651924</v>
       </c>
       <c r="P14">
-        <v>0.4643150580045728</v>
+        <v>0.02895848686617382</v>
       </c>
       <c r="Q14">
-        <v>35.52864824704911</v>
+        <v>0.21735220209175</v>
       </c>
       <c r="R14">
-        <v>319.757834223442</v>
+        <v>0.869408808367</v>
       </c>
       <c r="S14">
-        <v>0.1552827620518514</v>
+        <v>9.98681410182951E-05</v>
       </c>
       <c r="T14">
-        <v>0.1583457588348043</v>
+        <v>4.559610368765692E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>7.184249666666666</v>
+        <v>0.2964835</v>
       </c>
       <c r="H15">
-        <v>21.552749</v>
+        <v>0.592967</v>
       </c>
       <c r="I15">
-        <v>0.3410308498615283</v>
+        <v>0.002359942139382673</v>
       </c>
       <c r="J15">
-        <v>0.3410308498615283</v>
+        <v>0.001574533362132169</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6302735</v>
+        <v>3.883082333333333</v>
       </c>
       <c r="N15">
-        <v>1.260547</v>
+        <v>11.649247</v>
       </c>
       <c r="O15">
-        <v>0.05803117441525701</v>
+        <v>0.2241499746078426</v>
       </c>
       <c r="P15">
-        <v>0.03945057059108897</v>
+        <v>0.2300807094322775</v>
       </c>
       <c r="Q15">
-        <v>4.528042182283833</v>
+        <v>1.151269840974833</v>
       </c>
       <c r="R15">
-        <v>27.168253093703</v>
+        <v>6.907619045849</v>
       </c>
       <c r="S15">
-        <v>0.01979042072929768</v>
+        <v>0.0005289809706186038</v>
       </c>
       <c r="T15">
-        <v>0.01345386161620129</v>
+        <v>0.0003622697529841586</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>7.184249666666666</v>
+        <v>0.2964835</v>
       </c>
       <c r="H16">
-        <v>21.552749</v>
+        <v>0.592967</v>
       </c>
       <c r="I16">
-        <v>0.3410308498615283</v>
+        <v>0.002359942139382673</v>
       </c>
       <c r="J16">
-        <v>0.3410308498615283</v>
+        <v>0.001574533362132169</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.013841</v>
+        <v>6.890436666666667</v>
       </c>
       <c r="N16">
-        <v>0.041523</v>
+        <v>20.67131</v>
       </c>
       <c r="O16">
-        <v>0.001274382446797418</v>
+        <v>0.3977487653588976</v>
       </c>
       <c r="P16">
-        <v>0.001299520004136131</v>
+        <v>0.4082727123645446</v>
       </c>
       <c r="Q16">
-        <v>0.09943719963633334</v>
+        <v>2.042900779461667</v>
       </c>
       <c r="R16">
-        <v>0.894934796727</v>
+        <v>12.25740467677</v>
       </c>
       <c r="S16">
-        <v>0.0004346037288799373</v>
+        <v>0.0009386640722578938</v>
       </c>
       <c r="T16">
-        <v>0.0004431764114226014</v>
+        <v>0.0006428390064661663</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1458,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>71.35859699999999</v>
+      </c>
+      <c r="H17">
+        <v>214.075791</v>
+      </c>
+      <c r="I17">
+        <v>0.5679984217250741</v>
+      </c>
+      <c r="J17">
+        <v>0.5684455879573963</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6065375000000001</v>
+      </c>
+      <c r="N17">
+        <v>1.213075</v>
+      </c>
+      <c r="O17">
+        <v>0.03501222831579698</v>
+      </c>
+      <c r="P17">
+        <v>0.02395907277050269</v>
+      </c>
+      <c r="Q17">
+        <v>43.2816650278875</v>
+      </c>
+      <c r="R17">
+        <v>259.689990167325</v>
+      </c>
+      <c r="S17">
+        <v>0.01988689042445063</v>
+      </c>
+      <c r="T17">
+        <v>0.01361942920794245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>71.35859699999999</v>
+      </c>
+      <c r="H18">
+        <v>214.075791</v>
+      </c>
+      <c r="I18">
+        <v>0.5679984217250741</v>
+      </c>
+      <c r="J18">
+        <v>0.5684455879573963</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.210433333333333</v>
+      </c>
+      <c r="N18">
+        <v>15.6313</v>
+      </c>
+      <c r="O18">
+        <v>0.3007709852909436</v>
+      </c>
+      <c r="P18">
+        <v>0.3087290185665014</v>
+      </c>
+      <c r="Q18">
+        <v>371.8092124286999</v>
+      </c>
+      <c r="R18">
+        <v>3346.282911858299</v>
+      </c>
+      <c r="S18">
+        <v>0.1708374449459515</v>
+      </c>
+      <c r="T18">
+        <v>0.1754956484785448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>71.35859699999999</v>
+      </c>
+      <c r="H19">
+        <v>214.075791</v>
+      </c>
+      <c r="I19">
+        <v>0.5679984217250741</v>
+      </c>
+      <c r="J19">
+        <v>0.5684455879573963</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7331004999999999</v>
+      </c>
+      <c r="N19">
+        <v>1.466201</v>
+      </c>
+      <c r="O19">
+        <v>0.04231804642651924</v>
+      </c>
+      <c r="P19">
+        <v>0.02895848686617382</v>
+      </c>
+      <c r="Q19">
+        <v>52.31302313999849</v>
+      </c>
+      <c r="R19">
+        <v>313.8781388399909</v>
+      </c>
+      <c r="S19">
+        <v>0.02403658358075134</v>
+      </c>
+      <c r="T19">
+        <v>0.01646132409299872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>71.35859699999999</v>
+      </c>
+      <c r="H20">
+        <v>214.075791</v>
+      </c>
+      <c r="I20">
+        <v>0.5679984217250741</v>
+      </c>
+      <c r="J20">
+        <v>0.5684455879573963</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3.883082333333333</v>
+      </c>
+      <c r="N20">
+        <v>11.649247</v>
+      </c>
+      <c r="O20">
+        <v>0.2241499746078426</v>
+      </c>
+      <c r="P20">
+        <v>0.2300807094322775</v>
+      </c>
+      <c r="Q20">
+        <v>277.0913073421529</v>
+      </c>
+      <c r="R20">
+        <v>2493.821766079377</v>
+      </c>
+      <c r="S20">
+        <v>0.12731683180697</v>
+      </c>
+      <c r="T20">
+        <v>0.1307883641508859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>71.35859699999999</v>
+      </c>
+      <c r="H21">
+        <v>214.075791</v>
+      </c>
+      <c r="I21">
+        <v>0.5679984217250741</v>
+      </c>
+      <c r="J21">
+        <v>0.5684455879573963</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.890436666666667</v>
+      </c>
+      <c r="N21">
+        <v>20.67131</v>
+      </c>
+      <c r="O21">
+        <v>0.3977487653588976</v>
+      </c>
+      <c r="P21">
+        <v>0.4082727123645446</v>
+      </c>
+      <c r="Q21">
+        <v>491.6918932506899</v>
+      </c>
+      <c r="R21">
+        <v>4425.22703925621</v>
+      </c>
+      <c r="S21">
+        <v>0.2259206709669507</v>
+      </c>
+      <c r="T21">
+        <v>0.2320808220270245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.569643</v>
+      </c>
+      <c r="H22">
+        <v>10.708929</v>
+      </c>
+      <c r="I22">
+        <v>0.02841355737588224</v>
+      </c>
+      <c r="J22">
+        <v>0.02843592642289484</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.6065375000000001</v>
+      </c>
+      <c r="N22">
+        <v>1.213075</v>
+      </c>
+      <c r="O22">
+        <v>0.03501222831579698</v>
+      </c>
+      <c r="P22">
+        <v>0.02395907277050269</v>
+      </c>
+      <c r="Q22">
+        <v>2.1651223411125</v>
+      </c>
+      <c r="R22">
+        <v>12.990734046675</v>
+      </c>
+      <c r="S22">
+        <v>0.0009948219581083864</v>
+      </c>
+      <c r="T22">
+        <v>0.0006812984304627977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.569643</v>
+      </c>
+      <c r="H23">
+        <v>10.708929</v>
+      </c>
+      <c r="I23">
+        <v>0.02841355737588224</v>
+      </c>
+      <c r="J23">
+        <v>0.02843592642289484</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.210433333333333</v>
+      </c>
+      <c r="N23">
+        <v>15.6313</v>
+      </c>
+      <c r="O23">
+        <v>0.3007709852909436</v>
+      </c>
+      <c r="P23">
+        <v>0.3087290185665014</v>
+      </c>
+      <c r="Q23">
+        <v>18.5993868753</v>
+      </c>
+      <c r="R23">
+        <v>167.3944818777</v>
+      </c>
+      <c r="S23">
+        <v>0.008545973647564861</v>
+      </c>
+      <c r="T23">
+        <v>0.008778995656569567</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.569643</v>
+      </c>
+      <c r="H24">
+        <v>10.708929</v>
+      </c>
+      <c r="I24">
+        <v>0.02841355737588224</v>
+      </c>
+      <c r="J24">
+        <v>0.02843592642289484</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7331004999999999</v>
+      </c>
+      <c r="N24">
+        <v>1.466201</v>
+      </c>
+      <c r="O24">
+        <v>0.04231804642651924</v>
+      </c>
+      <c r="P24">
+        <v>0.02895848686617382</v>
+      </c>
+      <c r="Q24">
+        <v>2.616907068121499</v>
+      </c>
+      <c r="R24">
+        <v>15.701442408729</v>
+      </c>
+      <c r="S24">
+        <v>0.001202406240175153</v>
+      </c>
+      <c r="T24">
+        <v>0.0008234614018448853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>7.184249666666666</v>
-      </c>
-      <c r="H17">
-        <v>21.552749</v>
-      </c>
-      <c r="I17">
-        <v>0.3410308498615283</v>
-      </c>
-      <c r="J17">
-        <v>0.3410308498615283</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>5.271479666666667</v>
-      </c>
-      <c r="N17">
-        <v>15.814439</v>
-      </c>
-      <c r="O17">
-        <v>0.4853609678382705</v>
-      </c>
-      <c r="P17">
-        <v>0.494934851400202</v>
-      </c>
-      <c r="Q17">
-        <v>37.87162603809011</v>
-      </c>
-      <c r="R17">
-        <v>340.844634342811</v>
-      </c>
-      <c r="S17">
-        <v>0.1655230633514993</v>
-      </c>
-      <c r="T17">
-        <v>0.1687880529991001</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.569643</v>
+      </c>
+      <c r="H25">
+        <v>10.708929</v>
+      </c>
+      <c r="I25">
+        <v>0.02841355737588224</v>
+      </c>
+      <c r="J25">
+        <v>0.02843592642289484</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>3.883082333333333</v>
+      </c>
+      <c r="N25">
+        <v>11.649247</v>
+      </c>
+      <c r="O25">
+        <v>0.2241499746078426</v>
+      </c>
+      <c r="P25">
+        <v>0.2300807094322775</v>
+      </c>
+      <c r="Q25">
+        <v>13.861217669607</v>
+      </c>
+      <c r="R25">
+        <v>124.750959026463</v>
+      </c>
+      <c r="S25">
+        <v>0.006368898164322482</v>
+      </c>
+      <c r="T25">
+        <v>0.006542558124743691</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.569643</v>
+      </c>
+      <c r="H26">
+        <v>10.708929</v>
+      </c>
+      <c r="I26">
+        <v>0.02841355737588224</v>
+      </c>
+      <c r="J26">
+        <v>0.02843592642289484</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.890436666666667</v>
+      </c>
+      <c r="N26">
+        <v>20.67131</v>
+      </c>
+      <c r="O26">
+        <v>0.3977487653588976</v>
+      </c>
+      <c r="P26">
+        <v>0.4082727123645446</v>
+      </c>
+      <c r="Q26">
+        <v>24.59639901411</v>
+      </c>
+      <c r="R26">
+        <v>221.36759112699</v>
+      </c>
+      <c r="S26">
+        <v>0.01130145736571136</v>
+      </c>
+      <c r="T26">
+        <v>0.0116096128092739</v>
       </c>
     </row>
   </sheetData>
